--- a/data/trans_dic/P25C$otrosprofesionales_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otrosprofesionales_2023-Edad-trans_dic.xlsx
@@ -656,7 +656,7 @@
         <v>0.01335841471717358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.007135000533655599</v>
+        <v>0.0071350005336556</v>
       </c>
     </row>
     <row r="11">
@@ -683,10 +683,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.06601983315949403</v>
+        <v>0.06889700929275983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03693846595636661</v>
+        <v>0.03521223145386607</v>
       </c>
     </row>
     <row r="13">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.009484700011734636</v>
+        <v>0.009484700011734635</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.00768163890238587</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04633826173182851</v>
+        <v>0.05401049760326931</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03865265035388583</v>
+        <v>0.03585014532219899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02760793856194882</v>
+        <v>0.02749851280144592</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>0.01114250848404261</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04629654350104616</v>
+        <v>0.04629654350104617</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02392525079720622</v>
+        <v>0.02392525079720623</v>
       </c>
     </row>
     <row r="17">
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01969578167609319</v>
+        <v>0.01932611642907832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01117600101835992</v>
+        <v>0.0105175234196655</v>
       </c>
     </row>
     <row r="18">
@@ -790,13 +790,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03942707524386418</v>
+        <v>0.03480424166112581</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09171832821522327</v>
+        <v>0.09027898907491301</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04366566864232101</v>
+        <v>0.04164380911131579</v>
       </c>
     </row>
     <row r="19">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.003898231503779832</v>
+        <v>0.003898231503779831</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.01264608890549885</v>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02170850968410479</v>
+        <v>0.01589867343447712</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07083250218474685</v>
+        <v>0.06326220699668937</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02025415473437273</v>
+        <v>0.02357933498325765</v>
       </c>
     </row>
     <row r="22">
@@ -869,7 +869,7 @@
         <v>0.01041015288330169</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03288502520865947</v>
+        <v>0.03288502520865948</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.01338587218552691</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.00432015995131297</v>
+        <v>0.004326946952703808</v>
       </c>
     </row>
     <row r="24">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03671879532763313</v>
+        <v>0.03273058776190561</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1589868254111944</v>
+        <v>0.1751404375161608</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04031371192041887</v>
+        <v>0.03642815456063078</v>
       </c>
     </row>
     <row r="25">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.00745699602364988</v>
+        <v>0.007456996023649879</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.01938400141814601</v>
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002579617397570494</v>
+        <v>0.003092540472780464</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01064531495830581</v>
+        <v>0.009809179277560988</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.007061578504998904</v>
+        <v>0.006951024410641445</v>
       </c>
     </row>
     <row r="27">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01599621755940292</v>
+        <v>0.0153951064767929</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03488596073916921</v>
+        <v>0.03427278804969499</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01835334350998698</v>
+        <v>0.01817702244020405</v>
       </c>
     </row>
     <row r="28">
@@ -1242,10 +1242,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>3730</v>
+        <v>3893</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3907</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="16">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5254</v>
+        <v>6124</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3575</v>
+        <v>3315</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5684</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="20">
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1858</v>
+        <v>1823</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2899</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6509</v>
+        <v>5746</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8651</v>
+        <v>8516</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11327</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="24">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3725</v>
+        <v>2728</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3442</v>
+        <v>3074</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4460</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="28">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4724</v>
+        <v>4211</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3122</v>
+        <v>3439</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5978</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="32">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1703</v>
+        <v>2042</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3895</v>
+        <v>3589</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>7246</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="35">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>10561</v>
+        <v>10164</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12764</v>
+        <v>12540</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>18833</v>
+        <v>18652</v>
       </c>
     </row>
     <row r="36">
